--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CO)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CO).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CO)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | CA 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,29 +528,227 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Co
-Cob
-Cobæa - fam. Polémoniacées
-Cobæa scandens -  Cobée grimpante
-Coc
-Cochlearia - fam. Brassicacées
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cobæa - fam. Polémoniacées
+Cobæa scandens -  Cobée grimpante</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Coc</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cochlearia - fam. Brassicacées
 Cochlearia armoracia - Raifort sauvage ou « Moutarde d'Allemagne »
 Cocos- fam. Arécacées
-Cocos nucifera - Cocotier
-Coe
-Coeloglossum - fam. Orchidacées
+Cocos nucifera - Cocotier</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Coe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coeloglossum - fam. Orchidacées
 Coeloglossum viride - Orchis grenouille
 Coenonumpha
 Coenonumpha tullia
-Coenonumpha tullia Nipisiquit - Satyre fauve maritime
-Cof
-Coffea
-Coffea arabica - Caféier d'Arabie
-Coi
-Coix - fam. Graminées ou Poaceae
-Coix lacryma-jobi - Larme-de-Job
-Col
-Cola
+Coenonumpha tullia Nipisiquit - Satyre fauve maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cof</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coffea
+Coffea arabica - Caféier d'Arabie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Coi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Coix - fam. Graminées ou Poaceae
+Coix lacryma-jobi - Larme-de-Job</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cola
 Cola nitida - Kola
 Colchicum - fam. Liliacées ou Colchicacées
 Colchicum autumnale - Colchique d'automne
@@ -548,12 +758,88 @@
 Coleus amboinicus - Gros thym
 Collaea
 Colpodium
-Colpodium fulvum
-Com
-Commiphora
-Commiphora mukul - Gugul
-Con
-Conicosia
+Colpodium fulvum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Commiphora
+Commiphora mukul - Gugul</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Con</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Conicosia
 Conicosia communis - Conicosie
 Conicosia elongata - Conicosie
 Conicosia pugioniformis - Conicosie
@@ -573,11 +859,87 @@
 Convolvulus sabatius -  Liseron de Mauritanie
 Convolvulus sepium -  Grand Liseron
 Convolvulus siculus -  Liseron de Sicile
-Convolvulus tricolor -  Belle de jour
-Cop
-Copaifera
-Cor
-Corallorhiza - fam. Orchidacées
+Convolvulus tricolor -  Belle de jour</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cop</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Copaifera</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Corallorhiza - fam. Orchidacées
 Corallorhiza trifida
 Cordyline
 Cordyline australis
@@ -636,13 +998,89 @@
 Corylus avellana laciniata ou Corylus avellana heterophylla
 Corylus colurna - Noisetier
 Corylus cornuta - Noisetier à long bec
-Corylus maxima - Noisetier
-Cos
-Cosmos - fam. Composées
+Corylus maxima - Noisetier</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cos</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cosmos - fam. Composées
 Cosmos bipinnatus - Cosmos sensation ou Cosmos bipenné
-Cosmos sulphureus - Cosmos du Klondike
-Cot
-Cotinus
+Cosmos sulphureus - Cosmos du Klondike</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cot</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cotinus
 Cotinus coggygria - Fustet commun
 Cotinus dummeri
 Cotoneaster - fam. Rosacées
@@ -654,9 +1092,47 @@
 Cotula
 Cotula coronopifolia - Cotule
 Cotyledon (plante grasse)
-Cotyledon teretifolia - Cotylédon
-Cou
-Couroupita
+Cotyledon teretifolia - Cotylédon</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CO)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cou</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couroupita
 Couroupita guyanensis - Boulet de canon
 Coursetia
  Portail de l’écologie   Portail de la botanique                    </t>
